--- a/Data/All_Subway.xlsx
+++ b/Data/All_Subway.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/breaker/Desktop/BreakeR/DEV/SMU/ML-Project/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2516288-30BD-0541-8E02-11FB3C435423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4762ADB-79D2-394B-BFE6-FAC4F733488F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>6-People</t>
   </si>
@@ -84,6 +84,10 @@
   <si>
     <t>ㅍ</t>
   </si>
+  <si>
+    <t>ㄴ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -92,7 +96,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -102,6 +106,13 @@
       <sz val="8"/>
       <name val="돋움"/>
       <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -127,7 +138,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -144,6 +155,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -654,8 +671,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A122" zoomScaleNormal="150" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B156" sqref="B156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
@@ -10088,64 +10105,43 @@
       </c>
     </row>
     <row r="146" spans="1:21">
-      <c r="A146" s="1">
-        <v>44562</v>
-      </c>
+      <c r="A146" s="6"/>
     </row>
     <row r="147" spans="1:21">
-      <c r="A147" s="1">
-        <v>44593</v>
-      </c>
+      <c r="A147" s="1"/>
     </row>
     <row r="148" spans="1:21">
-      <c r="A148" s="1">
-        <v>44621</v>
-      </c>
+      <c r="A148" s="1"/>
     </row>
     <row r="149" spans="1:21">
-      <c r="A149" s="1">
-        <v>44652</v>
-      </c>
+      <c r="A149" s="1"/>
     </row>
     <row r="150" spans="1:21">
-      <c r="A150" s="1">
-        <v>44682</v>
-      </c>
+      <c r="A150" s="1"/>
     </row>
     <row r="151" spans="1:21">
-      <c r="A151" s="1">
-        <v>44713</v>
-      </c>
+      <c r="A151" s="1"/>
     </row>
     <row r="152" spans="1:21">
-      <c r="A152" s="1">
-        <v>44743</v>
-      </c>
+      <c r="A152" s="1"/>
     </row>
     <row r="153" spans="1:21">
-      <c r="A153" s="1">
-        <v>44774</v>
-      </c>
+      <c r="A153" s="1"/>
     </row>
     <row r="154" spans="1:21">
-      <c r="A154" s="1">
-        <v>44805</v>
-      </c>
+      <c r="A154" s="1"/>
     </row>
     <row r="155" spans="1:21">
-      <c r="A155" s="1">
-        <v>44835</v>
-      </c>
+      <c r="A155" s="1"/>
     </row>
     <row r="156" spans="1:21">
-      <c r="A156" s="1">
-        <v>44866</v>
+      <c r="A156" s="1"/>
+      <c r="B156" s="7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="157" spans="1:21">
-      <c r="A157" s="1">
-        <v>44896</v>
-      </c>
+      <c r="A157" s="1"/>
     </row>
     <row r="1048576" spans="11:11">
       <c r="K1048576" t="s">

--- a/Data/All_Subway.xlsx
+++ b/Data/All_Subway.xlsx
@@ -2,118 +2,116 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/breaker/Desktop/BreakeR/DEV/SMU/ML-Project/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4762ADB-79D2-394B-BFE6-FAC4F733488F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3655FD0-728C-E141-AAEA-FDF8E8A7FB6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3040" yWindow="2000" windowWidth="27900" windowHeight="16940" xr2:uid="{B3C4DE86-3D3A-674F-81CE-A71513B0C357}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>1-People</t>
+  </si>
+  <si>
+    <t>1-Money</t>
+  </si>
+  <si>
+    <t>2-People</t>
+  </si>
+  <si>
+    <t>2-Money</t>
+  </si>
+  <si>
+    <t>3-People</t>
+  </si>
+  <si>
+    <t>3-Money</t>
+  </si>
+  <si>
+    <t>4-People</t>
+  </si>
+  <si>
+    <t>4-Money</t>
+  </si>
+  <si>
+    <t>5-People</t>
+  </si>
+  <si>
+    <t>5-Money</t>
+  </si>
   <si>
     <t>6-People</t>
   </si>
   <si>
-    <t>10-People</t>
-  </si>
-  <si>
-    <t>10-Money</t>
+    <t>6-Money</t>
   </si>
   <si>
     <t>7-People</t>
   </si>
   <si>
-    <t>1-People</t>
+    <t>7-Money</t>
   </si>
   <si>
-    <t>2-People</t>
+    <t>8-People</t>
+  </si>
+  <si>
+    <t>8-Money</t>
   </si>
   <si>
     <t>9-People</t>
   </si>
   <si>
-    <t>3-People</t>
-  </si>
-  <si>
-    <t>8-People</t>
-  </si>
-  <si>
-    <t>5-People</t>
-  </si>
-  <si>
-    <t>4-People</t>
-  </si>
-  <si>
     <t>9-Money</t>
-  </si>
-  <si>
-    <t>3-Money</t>
-  </si>
-  <si>
-    <t>7-Money</t>
-  </si>
-  <si>
-    <t>5-Money</t>
-  </si>
-  <si>
-    <t>1-Money</t>
-  </si>
-  <si>
-    <t>8-Money</t>
-  </si>
-  <si>
-    <t>6-Money</t>
-  </si>
-  <si>
-    <t>4-Money</t>
-  </si>
-  <si>
-    <t>2-Money</t>
-  </si>
-  <si>
-    <t>ㅍ</t>
-  </si>
-  <si>
-    <t>ㄴ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -138,7 +136,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -157,214 +155,15 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6182D6"/>
-          <bgColor rgb="FF6182D6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF94A5DF"/>
-          <bgColor rgb="FF94A5DF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color rgb="FF6182D6"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF6182D6"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <border>
-        <top style="thin">
-          <color rgb="FF6182D6"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <border>
-        <bottom style="medium">
-          <color rgb="FF6182D6"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top style="medium">
-          <color rgb="FF6182D6"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF6182D6"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFAEBFEA"/>
-          <bgColor rgb="FFAEBFEA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFAEBFEA"/>
-          <bgColor rgb="FFAEBFEA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6182D6"/>
-          <bgColor rgb="FF6182D6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6182D6"/>
-          <bgColor rgb="FF6182D6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6182D6"/>
-          <bgColor rgb="FF6182D6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thick">
-          <color rgb="FFFFFFFF"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6182D6"/>
-          <bgColor rgb="FF6182D6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thick">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD7DFF4"/>
-          <bgColor rgb="FFD7DFF4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFFFF"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFFFF"/>
-        </horizontal>
-      </border>
-    </dxf>
-  </dxfs>
-  <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="13"/>
-      <tableStyleElement type="headerRow" dxfId="12"/>
-      <tableStyleElement type="totalRow" dxfId="11"/>
-      <tableStyleElement type="firstColumn" dxfId="10"/>
-      <tableStyleElement type="lastColumn" dxfId="9"/>
-      <tableStyleElement type="firstRowStripe" dxfId="8"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="7"/>
-    </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
-    </tableStyle>
-  </tableStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -587,21 +386,21 @@
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -663,88 +462,81 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA5989A-7359-CD42-B8E2-540801416804}">
+  <dimension ref="A1:S163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" zoomScaleNormal="150" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B156" sqref="B156"/>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="D161" sqref="D161"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
-  <cols>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:19">
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
         <v>12</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" t="s">
-        <v>3</v>
       </c>
       <c r="O1" t="s">
         <v>13</v>
       </c>
       <c r="P1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
-        <v>6</v>
-      </c>
       <c r="S1" t="s">
-        <v>11</v>
-      </c>
-      <c r="T1" t="s">
-        <v>1</v>
-      </c>
-      <c r="U1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>40179</v>
       </c>
@@ -802,14 +594,8 @@
       <c r="S2">
         <v>0</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>40210</v>
       </c>
@@ -867,14 +653,8 @@
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>40238</v>
       </c>
@@ -932,14 +712,8 @@
       <c r="S4">
         <v>0</v>
       </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>40269</v>
       </c>
@@ -997,14 +771,8 @@
       <c r="S5">
         <v>0</v>
       </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>40299</v>
       </c>
@@ -1062,14 +830,8 @@
       <c r="S6">
         <v>0</v>
       </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>40330</v>
       </c>
@@ -1127,14 +889,8 @@
       <c r="S7">
         <v>0</v>
       </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>40360</v>
       </c>
@@ -1192,14 +948,8 @@
       <c r="S8">
         <v>0</v>
       </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>40391</v>
       </c>
@@ -1257,14 +1007,8 @@
       <c r="S9">
         <v>0</v>
       </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>40422</v>
       </c>
@@ -1322,14 +1066,8 @@
       <c r="S10">
         <v>0</v>
       </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>40452</v>
       </c>
@@ -1387,14 +1125,8 @@
       <c r="S11">
         <v>0</v>
       </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>40483</v>
       </c>
@@ -1452,14 +1184,8 @@
       <c r="S12">
         <v>0</v>
       </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>40513</v>
       </c>
@@ -1517,14 +1243,8 @@
       <c r="S13">
         <v>0</v>
       </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21">
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>40544</v>
       </c>
@@ -1582,14 +1302,8 @@
       <c r="S14" s="3">
         <v>3949</v>
       </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21">
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>40575</v>
       </c>
@@ -1647,14 +1361,8 @@
       <c r="S15" s="3">
         <v>3440</v>
       </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21">
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>40603</v>
       </c>
@@ -1712,14 +1420,8 @@
       <c r="S16" s="3">
         <v>4277</v>
       </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21">
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>40634</v>
       </c>
@@ -1777,14 +1479,8 @@
       <c r="S17" s="3">
         <v>4388</v>
       </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21">
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>40664</v>
       </c>
@@ -1842,14 +1538,8 @@
       <c r="S18" s="3">
         <v>4191</v>
       </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21">
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>40695</v>
       </c>
@@ -1907,14 +1597,8 @@
       <c r="S19" s="3">
         <v>4050</v>
       </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21">
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>40725</v>
       </c>
@@ -1972,14 +1656,8 @@
       <c r="S20" s="3">
         <v>4182</v>
       </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21">
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>40756</v>
       </c>
@@ -2037,14 +1715,8 @@
       <c r="S21" s="3">
         <v>4098</v>
       </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21">
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>40787</v>
       </c>
@@ -2102,14 +1774,8 @@
       <c r="S22" s="3">
         <v>4003</v>
       </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21">
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>40817</v>
       </c>
@@ -2167,14 +1833,8 @@
       <c r="S23" s="3">
         <v>4430</v>
       </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21">
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>40848</v>
       </c>
@@ -2232,14 +1892,8 @@
       <c r="S24" s="3">
         <v>4483</v>
       </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21">
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>40878</v>
       </c>
@@ -2297,14 +1951,8 @@
       <c r="S25" s="3">
         <v>4668</v>
       </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21">
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26" s="1">
         <v>40909</v>
       </c>
@@ -2362,14 +2010,8 @@
       <c r="S26" s="3">
         <v>4397</v>
       </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21">
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27" s="1">
         <v>40940</v>
       </c>
@@ -2427,14 +2069,8 @@
       <c r="S27" s="3">
         <v>4582</v>
       </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
-      <c r="U27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21">
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28" s="1">
         <v>40969</v>
       </c>
@@ -2492,14 +2128,8 @@
       <c r="S28" s="3">
         <v>5454</v>
       </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21">
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29" s="1">
         <v>41000</v>
       </c>
@@ -2557,14 +2187,8 @@
       <c r="S29" s="3">
         <v>5520</v>
       </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21">
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30" s="1">
         <v>41030</v>
       </c>
@@ -2622,14 +2246,8 @@
       <c r="S30" s="3">
         <v>5558</v>
       </c>
-      <c r="T30">
-        <v>0</v>
-      </c>
-      <c r="U30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21">
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31" s="1">
         <v>41061</v>
       </c>
@@ -2687,14 +2305,8 @@
       <c r="S31" s="3">
         <v>5313</v>
       </c>
-      <c r="T31">
-        <v>0</v>
-      </c>
-      <c r="U31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21">
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32" s="1">
         <v>41091</v>
       </c>
@@ -2752,14 +2364,8 @@
       <c r="S32" s="3">
         <v>5470</v>
       </c>
-      <c r="T32">
-        <v>0</v>
-      </c>
-      <c r="U32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21">
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33" s="1">
         <v>41122</v>
       </c>
@@ -2817,14 +2423,8 @@
       <c r="S33" s="3">
         <v>5203</v>
       </c>
-      <c r="T33">
-        <v>0</v>
-      </c>
-      <c r="U33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21">
+    </row>
+    <row r="34" spans="1:19">
       <c r="A34" s="1">
         <v>41153</v>
       </c>
@@ -2882,14 +2482,8 @@
       <c r="S34" s="3">
         <v>5309</v>
       </c>
-      <c r="T34">
-        <v>0</v>
-      </c>
-      <c r="U34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21">
+    </row>
+    <row r="35" spans="1:19">
       <c r="A35" s="1">
         <v>41183</v>
       </c>
@@ -2947,14 +2541,8 @@
       <c r="S35" s="3">
         <v>5708</v>
       </c>
-      <c r="T35">
-        <v>0</v>
-      </c>
-      <c r="U35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21">
+    </row>
+    <row r="36" spans="1:19">
       <c r="A36" s="1">
         <v>41214</v>
       </c>
@@ -3012,14 +2600,8 @@
       <c r="S36" s="3">
         <v>5780</v>
       </c>
-      <c r="T36">
-        <v>0</v>
-      </c>
-      <c r="U36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21">
+    </row>
+    <row r="37" spans="1:19">
       <c r="A37" s="1">
         <v>41244</v>
       </c>
@@ -3077,14 +2659,8 @@
       <c r="S37" s="3">
         <v>5783</v>
       </c>
-      <c r="T37">
-        <v>0</v>
-      </c>
-      <c r="U37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21">
+    </row>
+    <row r="38" spans="1:19">
       <c r="A38" s="1">
         <v>41275</v>
       </c>
@@ -3142,14 +2718,8 @@
       <c r="S38" s="3">
         <v>5835</v>
       </c>
-      <c r="T38">
-        <v>0</v>
-      </c>
-      <c r="U38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21">
+    </row>
+    <row r="39" spans="1:19">
       <c r="A39" s="1">
         <v>41306</v>
       </c>
@@ -3207,14 +2777,8 @@
       <c r="S39" s="3">
         <v>5274</v>
       </c>
-      <c r="T39">
-        <v>0</v>
-      </c>
-      <c r="U39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21">
+    </row>
+    <row r="40" spans="1:19">
       <c r="A40" s="1">
         <v>41334</v>
       </c>
@@ -3272,14 +2836,8 @@
       <c r="S40" s="3">
         <v>5991</v>
       </c>
-      <c r="T40">
-        <v>0</v>
-      </c>
-      <c r="U40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21">
+    </row>
+    <row r="41" spans="1:19">
       <c r="A41" s="1">
         <v>41365</v>
       </c>
@@ -3337,14 +2895,8 @@
       <c r="S41" s="3">
         <v>6314</v>
       </c>
-      <c r="T41">
-        <v>0</v>
-      </c>
-      <c r="U41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21">
+    </row>
+    <row r="42" spans="1:19">
       <c r="A42" s="1">
         <v>41395</v>
       </c>
@@ -3402,14 +2954,8 @@
       <c r="S42" s="3">
         <v>6178</v>
       </c>
-      <c r="T42">
-        <v>0</v>
-      </c>
-      <c r="U42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21">
+    </row>
+    <row r="43" spans="1:19">
       <c r="A43" s="1">
         <v>41426</v>
       </c>
@@ -3467,14 +3013,8 @@
       <c r="S43" s="3">
         <v>5708</v>
       </c>
-      <c r="T43">
-        <v>0</v>
-      </c>
-      <c r="U43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21">
+    </row>
+    <row r="44" spans="1:19">
       <c r="A44" s="1">
         <v>41456</v>
       </c>
@@ -3532,14 +3072,8 @@
       <c r="S44" s="3">
         <v>5986</v>
       </c>
-      <c r="T44">
-        <v>0</v>
-      </c>
-      <c r="U44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21">
+    </row>
+    <row r="45" spans="1:19">
       <c r="A45" s="1">
         <v>41487</v>
       </c>
@@ -3597,14 +3131,8 @@
       <c r="S45" s="3">
         <v>5646</v>
       </c>
-      <c r="T45">
-        <v>0</v>
-      </c>
-      <c r="U45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21">
+    </row>
+    <row r="46" spans="1:19">
       <c r="A46" s="1">
         <v>41518</v>
       </c>
@@ -3662,14 +3190,8 @@
       <c r="S46" s="3">
         <v>5356</v>
       </c>
-      <c r="T46">
-        <v>0</v>
-      </c>
-      <c r="U46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21">
+    </row>
+    <row r="47" spans="1:19">
       <c r="A47" s="1">
         <v>41548</v>
       </c>
@@ -3727,14 +3249,8 @@
       <c r="S47" s="3">
         <v>6201</v>
       </c>
-      <c r="T47">
-        <v>0</v>
-      </c>
-      <c r="U47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21">
+    </row>
+    <row r="48" spans="1:19">
       <c r="A48" s="1">
         <v>41579</v>
       </c>
@@ -3792,14 +3308,8 @@
       <c r="S48" s="3">
         <v>6086</v>
       </c>
-      <c r="T48">
-        <v>0</v>
-      </c>
-      <c r="U48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21">
+    </row>
+    <row r="49" spans="1:19">
       <c r="A49" s="1">
         <v>41609</v>
       </c>
@@ -3857,14 +3367,8 @@
       <c r="S49" s="3">
         <v>6257</v>
       </c>
-      <c r="T49">
-        <v>0</v>
-      </c>
-      <c r="U49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21">
+    </row>
+    <row r="50" spans="1:19">
       <c r="A50" s="1">
         <v>41640</v>
       </c>
@@ -3922,14 +3426,8 @@
       <c r="S50" s="3">
         <v>5850</v>
       </c>
-      <c r="T50">
-        <v>0</v>
-      </c>
-      <c r="U50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21">
+    </row>
+    <row r="51" spans="1:19">
       <c r="A51" s="1">
         <v>41671</v>
       </c>
@@ -3987,14 +3485,8 @@
       <c r="S51" s="3">
         <v>5601</v>
       </c>
-      <c r="T51">
-        <v>0</v>
-      </c>
-      <c r="U51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21">
+    </row>
+    <row r="52" spans="1:19">
       <c r="A52" s="1">
         <v>41699</v>
       </c>
@@ -4052,14 +3544,8 @@
       <c r="S52" s="3">
         <v>6398</v>
       </c>
-      <c r="T52">
-        <v>0</v>
-      </c>
-      <c r="U52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21">
+    </row>
+    <row r="53" spans="1:19">
       <c r="A53" s="1">
         <v>41730</v>
       </c>
@@ -4117,14 +3603,8 @@
       <c r="S53" s="3">
         <v>6540</v>
       </c>
-      <c r="T53">
-        <v>0</v>
-      </c>
-      <c r="U53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21">
+    </row>
+    <row r="54" spans="1:19">
       <c r="A54" s="1">
         <v>41760</v>
       </c>
@@ -4182,14 +3662,8 @@
       <c r="S54" s="3">
         <v>6231</v>
       </c>
-      <c r="T54">
-        <v>0</v>
-      </c>
-      <c r="U54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21">
+    </row>
+    <row r="55" spans="1:19">
       <c r="A55" s="1">
         <v>41791</v>
       </c>
@@ -4247,14 +3721,8 @@
       <c r="S55" s="3">
         <v>5891</v>
       </c>
-      <c r="T55">
-        <v>0</v>
-      </c>
-      <c r="U55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21">
+    </row>
+    <row r="56" spans="1:19">
       <c r="A56" s="1">
         <v>41821</v>
       </c>
@@ -4312,14 +3780,8 @@
       <c r="S56" s="3">
         <v>6381</v>
       </c>
-      <c r="T56">
-        <v>0</v>
-      </c>
-      <c r="U56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21">
+    </row>
+    <row r="57" spans="1:19">
       <c r="A57" s="1">
         <v>41852</v>
       </c>
@@ -4377,14 +3839,8 @@
       <c r="S57" s="3">
         <v>5974</v>
       </c>
-      <c r="T57">
-        <v>0</v>
-      </c>
-      <c r="U57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21">
+    </row>
+    <row r="58" spans="1:19">
       <c r="A58" s="1">
         <v>41883</v>
       </c>
@@ -4442,14 +3898,8 @@
       <c r="S58" s="3">
         <v>5857</v>
       </c>
-      <c r="T58">
-        <v>0</v>
-      </c>
-      <c r="U58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21">
+    </row>
+    <row r="59" spans="1:19">
       <c r="A59" s="1">
         <v>41913</v>
       </c>
@@ -4507,14 +3957,8 @@
       <c r="S59" s="3">
         <v>6531</v>
       </c>
-      <c r="T59">
-        <v>0</v>
-      </c>
-      <c r="U59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21">
+    </row>
+    <row r="60" spans="1:19">
       <c r="A60" s="1">
         <v>41944</v>
       </c>
@@ -4572,14 +4016,8 @@
       <c r="S60" s="3">
         <v>6252</v>
       </c>
-      <c r="T60">
-        <v>0</v>
-      </c>
-      <c r="U60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21">
+    </row>
+    <row r="61" spans="1:19">
       <c r="A61" s="1">
         <v>41974</v>
       </c>
@@ -4637,14 +4075,8 @@
       <c r="S61" s="3">
         <v>6524</v>
       </c>
-      <c r="T61">
-        <v>0</v>
-      </c>
-      <c r="U61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21">
+    </row>
+    <row r="62" spans="1:19">
       <c r="A62" s="1">
         <v>42005</v>
       </c>
@@ -4702,14 +4134,8 @@
       <c r="S62" s="3">
         <v>6218</v>
       </c>
-      <c r="T62">
-        <v>0</v>
-      </c>
-      <c r="U62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21">
+    </row>
+    <row r="63" spans="1:19">
       <c r="A63" s="1">
         <v>42036</v>
       </c>
@@ -4767,14 +4193,8 @@
       <c r="S63" s="3">
         <v>5307</v>
       </c>
-      <c r="T63">
-        <v>0</v>
-      </c>
-      <c r="U63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21">
+    </row>
+    <row r="64" spans="1:19">
       <c r="A64" s="1">
         <v>42064</v>
       </c>
@@ -4832,14 +4252,8 @@
       <c r="S64" s="3">
         <v>6658</v>
       </c>
-      <c r="T64">
-        <v>0</v>
-      </c>
-      <c r="U64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21">
+    </row>
+    <row r="65" spans="1:19">
       <c r="A65" s="1">
         <v>42095</v>
       </c>
@@ -4897,14 +4311,8 @@
       <c r="S65" s="3">
         <v>7518</v>
       </c>
-      <c r="T65">
-        <v>0</v>
-      </c>
-      <c r="U65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21">
+    </row>
+    <row r="66" spans="1:19">
       <c r="A66" s="1">
         <v>42125</v>
       </c>
@@ -4962,14 +4370,8 @@
       <c r="S66" s="3">
         <v>7134</v>
       </c>
-      <c r="T66">
-        <v>0</v>
-      </c>
-      <c r="U66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21">
+    </row>
+    <row r="67" spans="1:19">
       <c r="A67" s="1">
         <v>42156</v>
       </c>
@@ -5027,14 +4429,8 @@
       <c r="S67" s="3">
         <v>6599</v>
       </c>
-      <c r="T67">
-        <v>0</v>
-      </c>
-      <c r="U67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21">
+    </row>
+    <row r="68" spans="1:19">
       <c r="A68" s="1">
         <v>42186</v>
       </c>
@@ -5092,14 +4488,8 @@
       <c r="S68" s="3">
         <v>8194</v>
       </c>
-      <c r="T68">
-        <v>0</v>
-      </c>
-      <c r="U68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21">
+    </row>
+    <row r="69" spans="1:19">
       <c r="A69" s="1">
         <v>42217</v>
       </c>
@@ -5157,14 +4547,8 @@
       <c r="S69" s="3">
         <v>7816</v>
       </c>
-      <c r="T69">
-        <v>0</v>
-      </c>
-      <c r="U69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21">
+    </row>
+    <row r="70" spans="1:19">
       <c r="A70" s="1">
         <v>42248</v>
       </c>
@@ -5222,14 +4606,8 @@
       <c r="S70" s="3">
         <v>7843</v>
       </c>
-      <c r="T70">
-        <v>0</v>
-      </c>
-      <c r="U70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21">
+    </row>
+    <row r="71" spans="1:19">
       <c r="A71" s="1">
         <v>42278</v>
       </c>
@@ -5287,14 +4665,8 @@
       <c r="S71" s="3">
         <v>8654</v>
       </c>
-      <c r="T71">
-        <v>0</v>
-      </c>
-      <c r="U71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21">
+    </row>
+    <row r="72" spans="1:19">
       <c r="A72" s="1">
         <v>42309</v>
       </c>
@@ -5352,14 +4724,8 @@
       <c r="S72" s="3">
         <v>8533</v>
       </c>
-      <c r="T72">
-        <v>0</v>
-      </c>
-      <c r="U72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21">
+    </row>
+    <row r="73" spans="1:19">
       <c r="A73" s="1">
         <v>42339</v>
       </c>
@@ -5417,14 +4783,8 @@
       <c r="S73" s="3">
         <v>8991</v>
       </c>
-      <c r="T73">
-        <v>0</v>
-      </c>
-      <c r="U73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21">
+    </row>
+    <row r="74" spans="1:19">
       <c r="A74" s="1">
         <v>42370</v>
       </c>
@@ -5482,14 +4842,8 @@
       <c r="S74" s="3">
         <v>8314</v>
       </c>
-      <c r="T74">
-        <v>0</v>
-      </c>
-      <c r="U74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21">
+    </row>
+    <row r="75" spans="1:19">
       <c r="A75" s="1">
         <v>42401</v>
       </c>
@@ -5547,14 +4901,8 @@
       <c r="S75" s="3">
         <v>7657</v>
       </c>
-      <c r="T75">
-        <v>0</v>
-      </c>
-      <c r="U75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21">
+    </row>
+    <row r="76" spans="1:19">
       <c r="A76" s="1">
         <v>42430</v>
       </c>
@@ -5612,14 +4960,8 @@
       <c r="S76" s="3">
         <v>9087</v>
       </c>
-      <c r="T76">
-        <v>0</v>
-      </c>
-      <c r="U76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21">
+    </row>
+    <row r="77" spans="1:19">
       <c r="A77" s="1">
         <v>42461</v>
       </c>
@@ -5677,14 +5019,8 @@
       <c r="S77" s="3">
         <v>9103</v>
       </c>
-      <c r="T77">
-        <v>0</v>
-      </c>
-      <c r="U77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21">
+    </row>
+    <row r="78" spans="1:19">
       <c r="A78" s="1">
         <v>42491</v>
       </c>
@@ -5742,14 +5078,8 @@
       <c r="S78" s="3">
         <v>9075</v>
       </c>
-      <c r="T78">
-        <v>0</v>
-      </c>
-      <c r="U78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21">
+    </row>
+    <row r="79" spans="1:19">
       <c r="A79" s="1">
         <v>42522</v>
       </c>
@@ -5807,14 +5137,8 @@
       <c r="S79" s="3">
         <v>8839</v>
       </c>
-      <c r="T79">
-        <v>0</v>
-      </c>
-      <c r="U79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21">
+    </row>
+    <row r="80" spans="1:19">
       <c r="A80" s="1">
         <v>42552</v>
       </c>
@@ -5872,14 +5196,8 @@
       <c r="S80" s="3">
         <v>8986</v>
       </c>
-      <c r="T80">
-        <v>0</v>
-      </c>
-      <c r="U80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:21">
+    </row>
+    <row r="81" spans="1:19">
       <c r="A81" s="1">
         <v>42583</v>
       </c>
@@ -5937,14 +5255,8 @@
       <c r="S81" s="3">
         <v>8814</v>
       </c>
-      <c r="T81">
-        <v>0</v>
-      </c>
-      <c r="U81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:21">
+    </row>
+    <row r="82" spans="1:19">
       <c r="A82" s="1">
         <v>42614</v>
       </c>
@@ -6002,14 +5314,8 @@
       <c r="S82" s="3">
         <v>8352</v>
       </c>
-      <c r="T82">
-        <v>0</v>
-      </c>
-      <c r="U82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:21">
+    </row>
+    <row r="83" spans="1:19">
       <c r="A83" s="1">
         <v>42644</v>
       </c>
@@ -6067,14 +5373,8 @@
       <c r="S83" s="3">
         <v>9201</v>
       </c>
-      <c r="T83">
-        <v>0</v>
-      </c>
-      <c r="U83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:21">
+    </row>
+    <row r="84" spans="1:19">
       <c r="A84" s="1">
         <v>42675</v>
       </c>
@@ -6132,14 +5432,8 @@
       <c r="S84" s="3">
         <v>9193</v>
       </c>
-      <c r="T84">
-        <v>0</v>
-      </c>
-      <c r="U84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:21">
+    </row>
+    <row r="85" spans="1:19">
       <c r="A85" s="1">
         <v>42705</v>
       </c>
@@ -6197,14 +5491,8 @@
       <c r="S85" s="3">
         <v>9420</v>
       </c>
-      <c r="T85">
-        <v>0</v>
-      </c>
-      <c r="U85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:21">
+    </row>
+    <row r="86" spans="1:19">
       <c r="A86" s="1">
         <v>42736</v>
       </c>
@@ -6262,14 +5550,8 @@
       <c r="S86" s="3">
         <v>8482</v>
       </c>
-      <c r="T86">
-        <v>0</v>
-      </c>
-      <c r="U86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:21">
+    </row>
+    <row r="87" spans="1:19">
       <c r="A87" s="1">
         <v>42767</v>
       </c>
@@ -6327,14 +5609,8 @@
       <c r="S87" s="3">
         <v>8508</v>
       </c>
-      <c r="T87">
-        <v>0</v>
-      </c>
-      <c r="U87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:21">
+    </row>
+    <row r="88" spans="1:19">
       <c r="A88" s="1">
         <v>42795</v>
       </c>
@@ -6392,14 +5668,8 @@
       <c r="S88" s="3">
         <v>9435</v>
       </c>
-      <c r="T88">
-        <v>0</v>
-      </c>
-      <c r="U88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:21">
+    </row>
+    <row r="89" spans="1:19">
       <c r="A89" s="1">
         <v>42826</v>
       </c>
@@ -6457,14 +5727,8 @@
       <c r="S89" s="3">
         <v>9313</v>
       </c>
-      <c r="T89">
-        <v>0</v>
-      </c>
-      <c r="U89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:21">
+    </row>
+    <row r="90" spans="1:19">
       <c r="A90" s="1">
         <v>42856</v>
       </c>
@@ -6522,14 +5786,8 @@
       <c r="S90" s="3">
         <v>8936</v>
       </c>
-      <c r="T90">
-        <v>0</v>
-      </c>
-      <c r="U90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:21">
+    </row>
+    <row r="91" spans="1:19">
       <c r="A91" s="1">
         <v>42887</v>
       </c>
@@ -6587,14 +5845,8 @@
       <c r="S91" s="3">
         <v>8944</v>
       </c>
-      <c r="T91">
-        <v>0</v>
-      </c>
-      <c r="U91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:21">
+    </row>
+    <row r="92" spans="1:19">
       <c r="A92" s="1">
         <v>42917</v>
       </c>
@@ -6652,14 +5904,8 @@
       <c r="S92" s="3">
         <v>8937</v>
       </c>
-      <c r="T92">
-        <v>0</v>
-      </c>
-      <c r="U92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:21">
+    </row>
+    <row r="93" spans="1:19">
       <c r="A93" s="1">
         <v>42948</v>
       </c>
@@ -6717,14 +5963,8 @@
       <c r="S93" s="3">
         <v>8875</v>
       </c>
-      <c r="T93">
-        <v>0</v>
-      </c>
-      <c r="U93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:21">
+    </row>
+    <row r="94" spans="1:19">
       <c r="A94" s="1">
         <v>42979</v>
       </c>
@@ -6782,14 +6022,8 @@
       <c r="S94" s="3">
         <v>9260</v>
       </c>
-      <c r="T94" s="2">
-        <v>1801</v>
-      </c>
-      <c r="U94" s="3">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="95" spans="1:21">
+    </row>
+    <row r="95" spans="1:19">
       <c r="A95" s="1">
         <v>43009</v>
       </c>
@@ -6847,14 +6081,8 @@
       <c r="S95" s="3">
         <v>8146</v>
       </c>
-      <c r="T95" s="2">
-        <v>1835</v>
-      </c>
-      <c r="U95" s="3">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="96" spans="1:21">
+    </row>
+    <row r="96" spans="1:19">
       <c r="A96" s="1">
         <v>43040</v>
       </c>
@@ -6912,14 +6140,8 @@
       <c r="S96" s="3">
         <v>9364</v>
       </c>
-      <c r="T96" s="2">
-        <v>1992</v>
-      </c>
-      <c r="U96" s="3">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="97" spans="1:21">
+    </row>
+    <row r="97" spans="1:19">
       <c r="A97" s="1">
         <v>43070</v>
       </c>
@@ -6977,14 +6199,8 @@
       <c r="S97" s="3">
         <v>9212</v>
       </c>
-      <c r="T97" s="2">
-        <v>1964</v>
-      </c>
-      <c r="U97" s="3">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="98" spans="1:21">
+    </row>
+    <row r="98" spans="1:19">
       <c r="A98" s="1">
         <v>43101</v>
       </c>
@@ -7042,14 +6258,8 @@
       <c r="S98" s="3">
         <v>8613</v>
       </c>
-      <c r="T98" s="2">
-        <v>1904</v>
-      </c>
-      <c r="U98" s="3">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="99" spans="1:21">
+    </row>
+    <row r="99" spans="1:19">
       <c r="A99" s="1">
         <v>43132</v>
       </c>
@@ -7107,14 +6317,8 @@
       <c r="S99" s="3">
         <v>7821</v>
       </c>
-      <c r="T99" s="2">
-        <v>1725</v>
-      </c>
-      <c r="U99" s="3">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="100" spans="1:21">
+    </row>
+    <row r="100" spans="1:19">
       <c r="A100" s="1">
         <v>43160</v>
       </c>
@@ -7172,14 +6376,8 @@
       <c r="S100" s="3">
         <v>9155</v>
       </c>
-      <c r="T100" s="2">
-        <v>2227</v>
-      </c>
-      <c r="U100" s="3">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="101" spans="1:21">
+    </row>
+    <row r="101" spans="1:19">
       <c r="A101" s="1">
         <v>43191</v>
       </c>
@@ -7237,14 +6435,8 @@
       <c r="S101" s="3">
         <v>9654</v>
       </c>
-      <c r="T101" s="2">
-        <v>2177</v>
-      </c>
-      <c r="U101" s="3">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="102" spans="1:21">
+    </row>
+    <row r="102" spans="1:19">
       <c r="A102" s="1">
         <v>43221</v>
       </c>
@@ -7302,14 +6494,8 @@
       <c r="S102" s="3">
         <v>9368</v>
       </c>
-      <c r="T102" s="2">
-        <v>2299</v>
-      </c>
-      <c r="U102" s="3">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="103" spans="1:21">
+    </row>
+    <row r="103" spans="1:19">
       <c r="A103" s="1">
         <v>43252</v>
       </c>
@@ -7367,14 +6553,8 @@
       <c r="S103" s="3">
         <v>8635</v>
       </c>
-      <c r="T103" s="2">
-        <v>2122</v>
-      </c>
-      <c r="U103" s="3">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="104" spans="1:21">
+    </row>
+    <row r="104" spans="1:19">
       <c r="A104" s="1">
         <v>43282</v>
       </c>
@@ -7432,14 +6612,8 @@
       <c r="S104" s="3">
         <v>9078</v>
       </c>
-      <c r="T104" s="2">
-        <v>2125</v>
-      </c>
-      <c r="U104" s="3">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="105" spans="1:21">
+    </row>
+    <row r="105" spans="1:19">
       <c r="A105" s="1">
         <v>43313</v>
       </c>
@@ -7497,14 +6671,8 @@
       <c r="S105" s="3">
         <v>8986</v>
       </c>
-      <c r="T105" s="2">
-        <v>2073</v>
-      </c>
-      <c r="U105" s="3">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="106" spans="1:21">
+    </row>
+    <row r="106" spans="1:19">
       <c r="A106" s="1">
         <v>43344</v>
       </c>
@@ -7562,14 +6730,8 @@
       <c r="S106" s="3">
         <v>8024</v>
       </c>
-      <c r="T106" s="2">
-        <v>2101</v>
-      </c>
-      <c r="U106" s="3">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="107" spans="1:21">
+    </row>
+    <row r="107" spans="1:19">
       <c r="A107" s="1">
         <v>43374</v>
       </c>
@@ -7627,14 +6789,8 @@
       <c r="S107" s="3">
         <v>9890</v>
       </c>
-      <c r="T107" s="2">
-        <v>2362</v>
-      </c>
-      <c r="U107" s="3">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="108" spans="1:21">
+    </row>
+    <row r="108" spans="1:19">
       <c r="A108" s="1">
         <v>43405</v>
       </c>
@@ -7692,14 +6848,8 @@
       <c r="S108" s="3">
         <v>9569</v>
       </c>
-      <c r="T108" s="2">
-        <v>2312</v>
-      </c>
-      <c r="U108" s="3">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="109" spans="1:21">
+    </row>
+    <row r="109" spans="1:19">
       <c r="A109" s="1">
         <v>43435</v>
       </c>
@@ -7757,14 +6907,8 @@
       <c r="S109" s="3">
         <v>10394</v>
       </c>
-      <c r="T109" s="2">
-        <v>2207</v>
-      </c>
-      <c r="U109" s="3">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="110" spans="1:21">
+    </row>
+    <row r="110" spans="1:19">
       <c r="A110" s="1">
         <v>43466</v>
       </c>
@@ -7822,14 +6966,8 @@
       <c r="S110" s="3">
         <v>10461</v>
       </c>
-      <c r="T110" s="2">
-        <v>2153</v>
-      </c>
-      <c r="U110" s="3">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="111" spans="1:21">
+    </row>
+    <row r="111" spans="1:19">
       <c r="A111" s="1">
         <v>43497</v>
       </c>
@@ -7887,14 +7025,8 @@
       <c r="S111" s="3">
         <v>8916</v>
       </c>
-      <c r="T111" s="2">
-        <v>1869</v>
-      </c>
-      <c r="U111" s="3">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="112" spans="1:21">
+    </row>
+    <row r="112" spans="1:19">
       <c r="A112" s="1">
         <v>43525</v>
       </c>
@@ -7952,14 +7084,8 @@
       <c r="S112" s="3">
         <v>10754</v>
       </c>
-      <c r="T112" s="2">
-        <v>2383</v>
-      </c>
-      <c r="U112" s="3">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="113" spans="1:21">
+    </row>
+    <row r="113" spans="1:19">
       <c r="A113" s="1">
         <v>43556</v>
       </c>
@@ -8017,14 +7143,8 @@
       <c r="S113" s="3">
         <v>11224</v>
       </c>
-      <c r="T113" s="2">
-        <v>2383</v>
-      </c>
-      <c r="U113" s="3">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="114" spans="1:21">
+    </row>
+    <row r="114" spans="1:19">
       <c r="A114" s="1">
         <v>43586</v>
       </c>
@@ -8082,14 +7202,8 @@
       <c r="S114" s="3">
         <v>11248</v>
       </c>
-      <c r="T114" s="2">
-        <v>2481</v>
-      </c>
-      <c r="U114" s="3">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="115" spans="1:21">
+    </row>
+    <row r="115" spans="1:19">
       <c r="A115" s="1">
         <v>43617</v>
       </c>
@@ -8147,14 +7261,8 @@
       <c r="S115" s="3">
         <v>10388</v>
       </c>
-      <c r="T115" s="2">
-        <v>2238</v>
-      </c>
-      <c r="U115" s="3">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="116" spans="1:21">
+    </row>
+    <row r="116" spans="1:19">
       <c r="A116" s="1">
         <v>43647</v>
       </c>
@@ -8212,14 +7320,8 @@
       <c r="S116" s="3">
         <v>11205</v>
       </c>
-      <c r="T116" s="2">
-        <v>2268</v>
-      </c>
-      <c r="U116" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="117" spans="1:21">
+    </row>
+    <row r="117" spans="1:19">
       <c r="A117" s="1">
         <v>43678</v>
       </c>
@@ -8277,14 +7379,8 @@
       <c r="S117" s="3">
         <v>10647</v>
       </c>
-      <c r="T117" s="2">
-        <v>2160</v>
-      </c>
-      <c r="U117" s="3">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="118" spans="1:21">
+    </row>
+    <row r="118" spans="1:19">
       <c r="A118" s="1">
         <v>43709</v>
       </c>
@@ -8342,14 +7438,8 @@
       <c r="S118" s="3">
         <v>10133</v>
       </c>
-      <c r="T118" s="2">
-        <v>2208</v>
-      </c>
-      <c r="U118" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="119" spans="1:21">
+    </row>
+    <row r="119" spans="1:19">
       <c r="A119" s="1">
         <v>43739</v>
       </c>
@@ -8407,14 +7497,8 @@
       <c r="S119" s="3">
         <v>11467</v>
       </c>
-      <c r="T119" s="2">
-        <v>2449</v>
-      </c>
-      <c r="U119" s="3">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="120" spans="1:21">
+    </row>
+    <row r="120" spans="1:19">
       <c r="A120" s="1">
         <v>43770</v>
       </c>
@@ -8472,14 +7556,8 @@
       <c r="S120" s="3">
         <v>11358</v>
       </c>
-      <c r="T120" s="2">
-        <v>2374</v>
-      </c>
-      <c r="U120" s="3">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="121" spans="1:21">
+    </row>
+    <row r="121" spans="1:19">
       <c r="A121" s="1">
         <v>43800</v>
       </c>
@@ -8537,14 +7615,8 @@
       <c r="S121" s="3">
         <v>11621</v>
       </c>
-      <c r="T121" s="2">
-        <v>2344</v>
-      </c>
-      <c r="U121" s="3">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="122" spans="1:21">
+    </row>
+    <row r="122" spans="1:19">
       <c r="A122" s="1">
         <v>43831</v>
       </c>
@@ -8602,14 +7674,8 @@
       <c r="S122" s="3">
         <v>10081</v>
       </c>
-      <c r="T122" s="2">
-        <v>2094</v>
-      </c>
-      <c r="U122" s="3">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="123" spans="1:21">
+    </row>
+    <row r="123" spans="1:19">
       <c r="A123" s="1">
         <v>43862</v>
       </c>
@@ -8667,14 +7733,8 @@
       <c r="S123" s="3">
         <v>8690</v>
       </c>
-      <c r="T123" s="2">
-        <v>1735</v>
-      </c>
-      <c r="U123" s="3">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="124" spans="1:21">
+    </row>
+    <row r="124" spans="1:19">
       <c r="A124" s="1">
         <v>43891</v>
       </c>
@@ -8732,14 +7792,8 @@
       <c r="S124" s="3">
         <v>7273</v>
       </c>
-      <c r="T124" s="2">
-        <v>1515</v>
-      </c>
-      <c r="U124" s="3">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="125" spans="1:21">
+    </row>
+    <row r="125" spans="1:19">
       <c r="A125" s="1">
         <v>43922</v>
       </c>
@@ -8797,14 +7851,8 @@
       <c r="S125" s="3">
         <v>7423</v>
       </c>
-      <c r="T125" s="2">
-        <v>1627</v>
-      </c>
-      <c r="U125" s="3">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="126" spans="1:21">
+    </row>
+    <row r="126" spans="1:19">
       <c r="A126" s="1">
         <v>43952</v>
       </c>
@@ -8862,14 +7910,8 @@
       <c r="S126" s="3">
         <v>8228</v>
       </c>
-      <c r="T126" s="2">
-        <v>1791</v>
-      </c>
-      <c r="U126" s="3">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="127" spans="1:21">
+    </row>
+    <row r="127" spans="1:19">
       <c r="A127" s="1">
         <v>43983</v>
       </c>
@@ -8927,14 +7969,8 @@
       <c r="S127" s="3">
         <v>9482</v>
       </c>
-      <c r="T127" s="2">
-        <v>1855</v>
-      </c>
-      <c r="U127" s="3">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="128" spans="1:21">
+    </row>
+    <row r="128" spans="1:19">
       <c r="A128" s="1">
         <v>44013</v>
       </c>
@@ -8992,14 +8028,8 @@
       <c r="S128" s="3">
         <v>9421</v>
       </c>
-      <c r="T128" s="2">
-        <v>1966</v>
-      </c>
-      <c r="U128" s="3">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="129" spans="1:21">
+    </row>
+    <row r="129" spans="1:19">
       <c r="A129" s="1">
         <v>44044</v>
       </c>
@@ -9057,14 +8087,8 @@
       <c r="S129" s="3">
         <v>8292</v>
       </c>
-      <c r="T129" s="2">
-        <v>1617</v>
-      </c>
-      <c r="U129" s="3">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="130" spans="1:21">
+    </row>
+    <row r="130" spans="1:19">
       <c r="A130" s="1">
         <v>44075</v>
       </c>
@@ -9122,14 +8146,8 @@
       <c r="S130" s="3">
         <v>7217</v>
       </c>
-      <c r="T130" s="2">
-        <v>1610</v>
-      </c>
-      <c r="U130" s="3">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="131" spans="1:21">
+    </row>
+    <row r="131" spans="1:19">
       <c r="A131" s="1">
         <v>44105</v>
       </c>
@@ -9187,14 +8205,8 @@
       <c r="S131" s="3">
         <v>8533</v>
       </c>
-      <c r="T131" s="2">
-        <v>1862</v>
-      </c>
-      <c r="U131" s="3">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="132" spans="1:21">
+    </row>
+    <row r="132" spans="1:19">
       <c r="A132" s="1">
         <v>44136</v>
       </c>
@@ -9252,14 +8264,8 @@
       <c r="S132" s="3">
         <v>9220</v>
       </c>
-      <c r="T132" s="2">
-        <v>1863</v>
-      </c>
-      <c r="U132" s="3">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="133" spans="1:21">
+    </row>
+    <row r="133" spans="1:19">
       <c r="A133" s="1">
         <v>44166</v>
       </c>
@@ -9317,14 +8323,8 @@
       <c r="S133" s="3">
         <v>7431</v>
       </c>
-      <c r="T133" s="2">
-        <v>1586</v>
-      </c>
-      <c r="U133" s="3">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="134" spans="1:21">
+    </row>
+    <row r="134" spans="1:19">
       <c r="A134" s="1">
         <v>44197</v>
       </c>
@@ -9382,14 +8382,8 @@
       <c r="S134" s="3">
         <v>7582</v>
       </c>
-      <c r="T134" s="2">
-        <v>1590</v>
-      </c>
-      <c r="U134" s="3">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="135" spans="1:21">
+    </row>
+    <row r="135" spans="1:19">
       <c r="A135" s="1">
         <v>44228</v>
       </c>
@@ -9447,14 +8441,8 @@
       <c r="S135" s="3">
         <v>7695</v>
       </c>
-      <c r="T135" s="2">
-        <v>1575</v>
-      </c>
-      <c r="U135" s="3">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="136" spans="1:21">
+    </row>
+    <row r="136" spans="1:19">
       <c r="A136" s="1">
         <v>44256</v>
       </c>
@@ -9512,14 +8500,8 @@
       <c r="S136" s="3">
         <v>9575</v>
       </c>
-      <c r="T136" s="2">
-        <v>1961</v>
-      </c>
-      <c r="U136" s="3">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="137" spans="1:21">
+    </row>
+    <row r="137" spans="1:19">
       <c r="A137" s="1">
         <v>44287</v>
       </c>
@@ -9577,14 +8559,8 @@
       <c r="S137" s="3">
         <v>9443</v>
       </c>
-      <c r="T137" s="2">
-        <v>1947</v>
-      </c>
-      <c r="U137" s="3">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="138" spans="1:21">
+    </row>
+    <row r="138" spans="1:19">
       <c r="A138" s="1">
         <v>44317</v>
       </c>
@@ -9642,14 +8618,8 @@
       <c r="S138" s="3">
         <v>9188</v>
       </c>
-      <c r="T138" s="2">
-        <v>1938</v>
-      </c>
-      <c r="U138" s="3">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="139" spans="1:21">
+    </row>
+    <row r="139" spans="1:19">
       <c r="A139" s="1">
         <v>44348</v>
       </c>
@@ -9707,14 +8677,8 @@
       <c r="S139" s="3">
         <v>9633</v>
       </c>
-      <c r="T139" s="2">
-        <v>1961</v>
-      </c>
-      <c r="U139" s="3">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="140" spans="1:21">
+    </row>
+    <row r="140" spans="1:19">
       <c r="A140" s="1">
         <v>44378</v>
       </c>
@@ -9772,14 +8736,8 @@
       <c r="S140" s="3">
         <v>8488</v>
       </c>
-      <c r="T140" s="2">
-        <v>1784</v>
-      </c>
-      <c r="U140" s="3">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="141" spans="1:21">
+    </row>
+    <row r="141" spans="1:19">
       <c r="A141" s="1">
         <v>44409</v>
       </c>
@@ -9837,14 +8795,8 @@
       <c r="S141" s="3">
         <v>8126</v>
       </c>
-      <c r="T141" s="2">
-        <v>1729</v>
-      </c>
-      <c r="U141" s="3">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="142" spans="1:21">
+    </row>
+    <row r="142" spans="1:19">
       <c r="A142" s="1">
         <v>44440</v>
       </c>
@@ -9902,14 +8854,8 @@
       <c r="S142" s="3">
         <v>8093</v>
       </c>
-      <c r="T142" s="2">
-        <v>1770</v>
-      </c>
-      <c r="U142" s="3">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="143" spans="1:21">
+    </row>
+    <row r="143" spans="1:19">
       <c r="A143" s="1">
         <v>44470</v>
       </c>
@@ -9967,14 +8913,8 @@
       <c r="S143" s="3">
         <v>9047</v>
       </c>
-      <c r="T143" s="2">
-        <v>1931</v>
-      </c>
-      <c r="U143" s="3">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="144" spans="1:21">
+    </row>
+    <row r="144" spans="1:19">
       <c r="A144" s="1">
         <v>44501</v>
       </c>
@@ -10032,14 +8972,8 @@
       <c r="S144" s="3">
         <v>9943</v>
       </c>
-      <c r="T144" s="2">
-        <v>2013</v>
-      </c>
-      <c r="U144" s="3">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="145" spans="1:21">
+    </row>
+    <row r="145" spans="1:19">
       <c r="A145" s="1">
         <v>44531</v>
       </c>
@@ -10097,60 +9031,555 @@
       <c r="S145" s="3">
         <v>9825</v>
       </c>
-      <c r="T145" s="2">
-        <v>1958</v>
-      </c>
-      <c r="U145" s="3">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="146" spans="1:21">
-      <c r="A146" s="6"/>
-    </row>
-    <row r="147" spans="1:21">
-      <c r="A147" s="1"/>
-    </row>
-    <row r="148" spans="1:21">
-      <c r="A148" s="1"/>
-    </row>
-    <row r="149" spans="1:21">
-      <c r="A149" s="1"/>
-    </row>
-    <row r="150" spans="1:21">
-      <c r="A150" s="1"/>
-    </row>
-    <row r="151" spans="1:21">
-      <c r="A151" s="1"/>
-    </row>
-    <row r="152" spans="1:21">
-      <c r="A152" s="1"/>
-    </row>
-    <row r="153" spans="1:21">
-      <c r="A153" s="1"/>
-    </row>
-    <row r="154" spans="1:21">
-      <c r="A154" s="1"/>
-    </row>
-    <row r="155" spans="1:21">
-      <c r="A155" s="1"/>
-    </row>
-    <row r="156" spans="1:21">
-      <c r="A156" s="1"/>
-      <c r="B156" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="157" spans="1:21">
-      <c r="A157" s="1"/>
-    </row>
-    <row r="1048576" spans="11:11">
-      <c r="K1048576" t="s">
-        <v>20</v>
-      </c>
+    </row>
+    <row r="146" spans="1:19">
+      <c r="A146" s="1">
+        <v>44562</v>
+      </c>
+      <c r="B146" s="6">
+        <v>9497</v>
+      </c>
+      <c r="C146" s="3">
+        <v>4672</v>
+      </c>
+      <c r="D146" s="6">
+        <v>49162</v>
+      </c>
+      <c r="E146" s="4">
+        <f>(D146*677)/1000</f>
+        <v>33282.673999999999</v>
+      </c>
+      <c r="F146" s="6">
+        <v>20229</v>
+      </c>
+      <c r="G146" s="4">
+        <f>(F146*587)/1000</f>
+        <v>11874.423000000001</v>
+      </c>
+      <c r="H146" s="2">
+        <v>18480</v>
+      </c>
+      <c r="I146" s="4">
+        <f>(H146*601)/1000</f>
+        <v>11106.48</v>
+      </c>
+      <c r="J146" s="2">
+        <v>23497</v>
+      </c>
+      <c r="K146" s="4">
+        <f>(J146*623)/1000</f>
+        <v>14638.630999999999</v>
+      </c>
+      <c r="L146" s="2">
+        <v>12691</v>
+      </c>
+      <c r="M146" s="4">
+        <f>(L146*583)/1000</f>
+        <v>7398.8530000000001</v>
+      </c>
+      <c r="N146" s="2">
+        <v>22145</v>
+      </c>
+      <c r="O146" s="4">
+        <f>(N146*670)/1000</f>
+        <v>14837.15</v>
+      </c>
+      <c r="P146" s="2">
+        <v>7576</v>
+      </c>
+      <c r="Q146" s="4">
+        <f>(P146*586)/1000</f>
+        <v>4439.5360000000001</v>
+      </c>
+      <c r="R146" s="2">
+        <v>14218</v>
+      </c>
+      <c r="S146" s="4">
+        <f>(R146*583)/1000</f>
+        <v>8289.0939999999991</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19">
+      <c r="A147" s="1">
+        <v>44593</v>
+      </c>
+      <c r="B147" s="2">
+        <v>7885</v>
+      </c>
+      <c r="C147" s="3">
+        <f>(B147*492)/1000</f>
+        <v>3879.42</v>
+      </c>
+      <c r="D147" s="2">
+        <v>41430</v>
+      </c>
+      <c r="E147" s="4">
+        <f t="shared" ref="E147:E153" si="0">(D147*677)/1000</f>
+        <v>28048.11</v>
+      </c>
+      <c r="F147" s="2">
+        <v>17145</v>
+      </c>
+      <c r="G147" s="4">
+        <f t="shared" ref="G147:G153" si="1">(F147*587)/1000</f>
+        <v>10064.115</v>
+      </c>
+      <c r="H147" s="2">
+        <v>15641</v>
+      </c>
+      <c r="I147" s="4">
+        <f t="shared" ref="I147:I153" si="2">(H147*601)/1000</f>
+        <v>9400.241</v>
+      </c>
+      <c r="J147" s="2">
+        <v>19902</v>
+      </c>
+      <c r="K147" s="4">
+        <f t="shared" ref="K147:K153" si="3">(J147*623)/1000</f>
+        <v>12398.946</v>
+      </c>
+      <c r="L147" s="2">
+        <v>10838</v>
+      </c>
+      <c r="M147" s="4">
+        <f t="shared" ref="M147:M153" si="4">(L147*583)/1000</f>
+        <v>6318.5540000000001</v>
+      </c>
+      <c r="N147" s="2">
+        <v>18899</v>
+      </c>
+      <c r="O147" s="4">
+        <f t="shared" ref="O147:O153" si="5">(N147*670)/1000</f>
+        <v>12662.33</v>
+      </c>
+      <c r="P147" s="2">
+        <v>6399</v>
+      </c>
+      <c r="Q147" s="4">
+        <f t="shared" ref="Q147:Q153" si="6">(P147*586)/1000</f>
+        <v>3749.8139999999999</v>
+      </c>
+      <c r="R147" s="2">
+        <v>13592</v>
+      </c>
+      <c r="S147" s="4">
+        <f t="shared" ref="S147:S153" si="7">(R147*583)/1000</f>
+        <v>7924.1360000000004</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19">
+      <c r="A148" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B148" s="2">
+        <v>8969</v>
+      </c>
+      <c r="C148" s="3">
+        <f t="shared" ref="C148:C153" si="8">(B148*492)/1000</f>
+        <v>4412.7479999999996</v>
+      </c>
+      <c r="D148" s="2">
+        <v>46858</v>
+      </c>
+      <c r="E148" s="4">
+        <f t="shared" si="0"/>
+        <v>31722.866000000002</v>
+      </c>
+      <c r="F148" s="2">
+        <v>19168</v>
+      </c>
+      <c r="G148" s="4">
+        <f t="shared" si="1"/>
+        <v>11251.616</v>
+      </c>
+      <c r="H148" s="2">
+        <v>18120</v>
+      </c>
+      <c r="I148" s="4">
+        <f t="shared" si="2"/>
+        <v>10890.12</v>
+      </c>
+      <c r="J148" s="2">
+        <v>22592</v>
+      </c>
+      <c r="K148" s="4">
+        <f t="shared" si="3"/>
+        <v>14074.816000000001</v>
+      </c>
+      <c r="L148" s="2">
+        <v>12557</v>
+      </c>
+      <c r="M148" s="4">
+        <f t="shared" si="4"/>
+        <v>7320.7309999999998</v>
+      </c>
+      <c r="N148" s="2">
+        <v>21674</v>
+      </c>
+      <c r="O148" s="4">
+        <f t="shared" si="5"/>
+        <v>14521.58</v>
+      </c>
+      <c r="P148" s="2">
+        <v>7289</v>
+      </c>
+      <c r="Q148" s="4">
+        <f t="shared" si="6"/>
+        <v>4271.3540000000003</v>
+      </c>
+      <c r="R148" s="2">
+        <v>13952</v>
+      </c>
+      <c r="S148" s="4">
+        <f t="shared" si="7"/>
+        <v>8134.0159999999996</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19">
+      <c r="A149" s="1">
+        <v>44652</v>
+      </c>
+      <c r="B149" s="2">
+        <v>10268</v>
+      </c>
+      <c r="C149" s="3">
+        <f t="shared" si="8"/>
+        <v>5051.8559999999998</v>
+      </c>
+      <c r="D149" s="2">
+        <v>52718</v>
+      </c>
+      <c r="E149" s="4">
+        <f t="shared" si="0"/>
+        <v>35690.086000000003</v>
+      </c>
+      <c r="F149" s="2">
+        <v>21668</v>
+      </c>
+      <c r="G149" s="4">
+        <f t="shared" si="1"/>
+        <v>12719.116</v>
+      </c>
+      <c r="H149" s="2">
+        <v>20297</v>
+      </c>
+      <c r="I149" s="4">
+        <f t="shared" si="2"/>
+        <v>12198.496999999999</v>
+      </c>
+      <c r="J149" s="2">
+        <v>25569</v>
+      </c>
+      <c r="K149" s="4">
+        <f t="shared" si="3"/>
+        <v>15929.486999999999</v>
+      </c>
+      <c r="L149" s="2">
+        <v>13936</v>
+      </c>
+      <c r="M149" s="4">
+        <f t="shared" si="4"/>
+        <v>8124.6880000000001</v>
+      </c>
+      <c r="N149" s="2">
+        <v>24021</v>
+      </c>
+      <c r="O149" s="4">
+        <f t="shared" si="5"/>
+        <v>16094.07</v>
+      </c>
+      <c r="P149" s="2">
+        <v>8186</v>
+      </c>
+      <c r="Q149" s="4">
+        <f t="shared" si="6"/>
+        <v>4796.9960000000001</v>
+      </c>
+      <c r="R149" s="2">
+        <v>14516</v>
+      </c>
+      <c r="S149" s="4">
+        <f t="shared" si="7"/>
+        <v>8462.8279999999995</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19">
+      <c r="A150" s="1">
+        <v>44682</v>
+      </c>
+      <c r="B150" s="2">
+        <v>11536</v>
+      </c>
+      <c r="C150" s="3">
+        <f t="shared" si="8"/>
+        <v>5675.7120000000004</v>
+      </c>
+      <c r="D150" s="2">
+        <v>57934</v>
+      </c>
+      <c r="E150" s="4">
+        <f t="shared" si="0"/>
+        <v>39221.317999999999</v>
+      </c>
+      <c r="F150" s="2">
+        <v>24342</v>
+      </c>
+      <c r="G150" s="4">
+        <f t="shared" si="1"/>
+        <v>14288.754000000001</v>
+      </c>
+      <c r="H150" s="2">
+        <v>22689</v>
+      </c>
+      <c r="I150" s="4">
+        <f t="shared" si="2"/>
+        <v>13636.089</v>
+      </c>
+      <c r="J150" s="2">
+        <v>27732</v>
+      </c>
+      <c r="K150" s="4">
+        <f t="shared" si="3"/>
+        <v>17277.036</v>
+      </c>
+      <c r="L150" s="2">
+        <v>15509</v>
+      </c>
+      <c r="M150" s="4">
+        <f t="shared" si="4"/>
+        <v>9041.7469999999994</v>
+      </c>
+      <c r="N150" s="2">
+        <v>26179</v>
+      </c>
+      <c r="O150" s="4">
+        <f t="shared" si="5"/>
+        <v>17539.93</v>
+      </c>
+      <c r="P150" s="2">
+        <v>8771</v>
+      </c>
+      <c r="Q150" s="4">
+        <f t="shared" si="6"/>
+        <v>5139.8059999999996</v>
+      </c>
+      <c r="R150" s="2">
+        <v>14985</v>
+      </c>
+      <c r="S150" s="4">
+        <f t="shared" si="7"/>
+        <v>8736.2549999999992</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19">
+      <c r="A151" s="1">
+        <v>44713</v>
+      </c>
+      <c r="B151" s="2">
+        <v>10952</v>
+      </c>
+      <c r="C151" s="3">
+        <f t="shared" si="8"/>
+        <v>5388.384</v>
+      </c>
+      <c r="D151" s="2">
+        <v>54714</v>
+      </c>
+      <c r="E151" s="4">
+        <f t="shared" si="0"/>
+        <v>37041.377999999997</v>
+      </c>
+      <c r="F151" s="2">
+        <v>22814</v>
+      </c>
+      <c r="G151" s="4">
+        <f t="shared" si="1"/>
+        <v>13391.817999999999</v>
+      </c>
+      <c r="H151" s="2">
+        <v>21122</v>
+      </c>
+      <c r="I151" s="4">
+        <f t="shared" si="2"/>
+        <v>12694.322</v>
+      </c>
+      <c r="J151" s="2">
+        <v>26159</v>
+      </c>
+      <c r="K151" s="4">
+        <f t="shared" si="3"/>
+        <v>16297.057000000001</v>
+      </c>
+      <c r="L151" s="2">
+        <v>14524</v>
+      </c>
+      <c r="M151" s="4">
+        <f t="shared" si="4"/>
+        <v>8467.4920000000002</v>
+      </c>
+      <c r="N151" s="2">
+        <v>24525</v>
+      </c>
+      <c r="O151" s="4">
+        <f t="shared" si="5"/>
+        <v>16431.75</v>
+      </c>
+      <c r="P151" s="2">
+        <v>8322</v>
+      </c>
+      <c r="Q151" s="4">
+        <f t="shared" si="6"/>
+        <v>4876.692</v>
+      </c>
+      <c r="R151" s="2">
+        <v>14934</v>
+      </c>
+      <c r="S151" s="4">
+        <f t="shared" si="7"/>
+        <v>8706.5220000000008</v>
+      </c>
+    </row>
+    <row r="152" spans="1:19">
+      <c r="A152" s="1">
+        <v>44743</v>
+      </c>
+      <c r="B152" s="2">
+        <v>11099</v>
+      </c>
+      <c r="C152" s="3">
+        <f t="shared" si="8"/>
+        <v>5460.7079999999996</v>
+      </c>
+      <c r="D152" s="2">
+        <v>56369</v>
+      </c>
+      <c r="E152" s="4">
+        <f t="shared" si="0"/>
+        <v>38161.813000000002</v>
+      </c>
+      <c r="F152" s="2">
+        <v>22958</v>
+      </c>
+      <c r="G152" s="4">
+        <f t="shared" si="1"/>
+        <v>13476.346</v>
+      </c>
+      <c r="H152" s="2">
+        <v>21139</v>
+      </c>
+      <c r="I152" s="4">
+        <f t="shared" si="2"/>
+        <v>12704.539000000001</v>
+      </c>
+      <c r="J152" s="2">
+        <v>26478</v>
+      </c>
+      <c r="K152" s="4">
+        <f t="shared" si="3"/>
+        <v>16495.794000000002</v>
+      </c>
+      <c r="L152" s="2">
+        <v>14568</v>
+      </c>
+      <c r="M152" s="4">
+        <f t="shared" si="4"/>
+        <v>8493.1440000000002</v>
+      </c>
+      <c r="N152" s="2">
+        <v>24660</v>
+      </c>
+      <c r="O152" s="4">
+        <f t="shared" si="5"/>
+        <v>16522.2</v>
+      </c>
+      <c r="P152" s="2">
+        <v>8404</v>
+      </c>
+      <c r="Q152" s="4">
+        <f t="shared" si="6"/>
+        <v>4924.7439999999997</v>
+      </c>
+      <c r="R152" s="2">
+        <v>15155</v>
+      </c>
+      <c r="S152" s="4">
+        <f t="shared" si="7"/>
+        <v>8835.3649999999998</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19">
+      <c r="A153" s="1">
+        <v>44774</v>
+      </c>
+      <c r="B153" s="2">
+        <v>10760</v>
+      </c>
+      <c r="C153" s="3">
+        <f t="shared" si="8"/>
+        <v>5293.92</v>
+      </c>
+      <c r="D153" s="2">
+        <v>54177</v>
+      </c>
+      <c r="E153" s="4">
+        <f t="shared" si="0"/>
+        <v>36677.828999999998</v>
+      </c>
+      <c r="F153" s="2">
+        <v>22080</v>
+      </c>
+      <c r="G153" s="4">
+        <f t="shared" si="1"/>
+        <v>12960.96</v>
+      </c>
+      <c r="H153" s="2">
+        <v>20359</v>
+      </c>
+      <c r="I153" s="4">
+        <f t="shared" si="2"/>
+        <v>12235.759</v>
+      </c>
+      <c r="J153" s="2">
+        <v>25852</v>
+      </c>
+      <c r="K153" s="4">
+        <f t="shared" si="3"/>
+        <v>16105.796</v>
+      </c>
+      <c r="L153" s="2">
+        <v>14039</v>
+      </c>
+      <c r="M153" s="4">
+        <f t="shared" si="4"/>
+        <v>8184.7370000000001</v>
+      </c>
+      <c r="N153" s="2">
+        <v>23824</v>
+      </c>
+      <c r="O153" s="4">
+        <f t="shared" si="5"/>
+        <v>15962.08</v>
+      </c>
+      <c r="P153" s="2">
+        <v>8131</v>
+      </c>
+      <c r="Q153" s="4">
+        <f t="shared" si="6"/>
+        <v>4764.7659999999996</v>
+      </c>
+      <c r="R153" s="2">
+        <v>14953</v>
+      </c>
+      <c r="S153" s="4">
+        <f t="shared" si="7"/>
+        <v>8717.5990000000002</v>
+      </c>
+    </row>
+    <row r="163" spans="3:3">
+      <c r="C163" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/All_Subway.xlsx
+++ b/Data/All_Subway.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/breaker/Desktop/BreakeR/DEV/SMU/ML-Project/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3655FD0-728C-E141-AAEA-FDF8E8A7FB6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D2E9E3-7741-FB4A-94ED-FC86054B7608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="2000" windowWidth="27900" windowHeight="16940" xr2:uid="{B3C4DE86-3D3A-674F-81CE-A71513B0C357}"/>
+    <workbookView xWindow="33600" yWindow="-10500" windowWidth="51200" windowHeight="31500" xr2:uid="{B3C4DE86-3D3A-674F-81CE-A71513B0C357}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -474,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA5989A-7359-CD42-B8E2-540801416804}">
   <dimension ref="A1:S163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="D161" sqref="D161"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P39" sqref="P39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
